--- a/data/openCartData.xlsx
+++ b/data/openCartData.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Documents\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B7BE19-BCE1-4EEF-9D06-FD18CEAAE490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481056BD-EF0E-4FAC-A24B-C39D323AC20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Browser</t>
   </si>
@@ -83,10 +87,40 @@
     <t>sonia123</t>
   </si>
   <si>
-    <t>abdousalah309@gmail.com</t>
-  </si>
-  <si>
-    <t>soniab309@gmail.com</t>
+    <t>abdousalah316@gmail.com</t>
+  </si>
+  <si>
+    <t>soniab316@gmail.com</t>
+  </si>
+  <si>
+    <t>abdousalah315@gmail.com</t>
+  </si>
+  <si>
+    <t>soniab315@gmail.com</t>
+  </si>
+  <si>
+    <t>abdousalah@gmail</t>
+  </si>
+  <si>
+    <t>soniagmail.com</t>
+  </si>
+  <si>
+    <t>abdousalah400@gmail.com</t>
+  </si>
+  <si>
+    <t>soniagbenmohamed400@mail.com</t>
+  </si>
+  <si>
+    <t>abdou12</t>
+  </si>
+  <si>
+    <t>sonia12</t>
+  </si>
+  <si>
+    <t>abdousalah500@gmail.com</t>
+  </si>
+  <si>
+    <t>soniagbenmohamed500@mail.com</t>
   </si>
 </sst>
 </file>
@@ -145,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,6 +187,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -572,4 +610,431 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6A4BF-EC41-4EA6-9B6A-693A40485533}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>789456</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1E424CA4-C10E-4104-8820-C4AA8B7E90ED}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{6F1C5F01-6710-4D11-AC52-C612FF74CEC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD02D5A-96D0-4616-9FD2-FE037DEC952A}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>456789</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{6C5689E0-0C0F-4615-9FD1-3A62B4F02B3B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC47BBCA-6FF4-4BBF-9A08-5D9D53543D5C}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>456789</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A95C3FF2-390F-4FE6-8782-EB87A3E35BAC}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{487A88F8-0E04-42C9-B3FC-DC41DCF50261}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194AA136-011A-4A32-8B61-9C8439425AB7}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>456789</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{F2CAA2C8-7D47-4264-B355-2FACD3664B5C}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{53C9E53A-4FC4-4DB5-84F4-D2A0240B40C9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/openCartData.xlsx
+++ b/data/openCartData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Documents\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481056BD-EF0E-4FAC-A24B-C39D323AC20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACAD8E6-F15D-4200-AE0A-CB1FCDBC6098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
   <si>
     <t>Browser</t>
   </si>
@@ -121,6 +124,15 @@
   </si>
   <si>
     <t>soniagbenmohamed500@mail.com</t>
+  </si>
+  <si>
+    <t>abdousalah312@gmail.com</t>
+  </si>
+  <si>
+    <t>sonia312@gmail.com</t>
+  </si>
+  <si>
+    <t>sonia1</t>
   </si>
 </sst>
 </file>
@@ -509,7 +521,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194AA136-011A-4A32-8B61-9C8439425AB7}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,4 +1049,164 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E6ABD7-865C-40AD-9FD5-7D69A561C3B0}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{63CFD5BE-1C8C-4046-A4A9-9BAB60925539}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{468632CF-2BC0-460C-BBC3-8472FC03B0E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04663CB4-56B6-4DE1-911E-862D28C8362F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="3" width="30.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{10AFC343-57F6-41EC-A4D6-F120101A968E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8D1C2F28-DB91-4AB4-BED9-05E2654B4740}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA56360B-F5D4-4575-89AF-DD3621480399}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F5EC96A8-0A24-45AB-A6B0-EF0C822BD1BC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9DD46CE6-41E1-4A2B-84FE-E1E4F9463103}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>